--- a/evaluation/results/isolation_forest/augmented/none_3/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_3/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C2">
-        <v>0.8632218844984803</v>
+        <v>0.5625</v>
       </c>
       <c r="D2">
-        <v>0.5318352059925093</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="E2">
-        <v>0.6581691772885284</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="F2">
-        <v>0.5760649087221096</v>
+        <v>0.8206233421750663</v>
       </c>
       <c r="G2">
-        <v>0.5398055413407413</v>
+        <v>0.9044272663387211</v>
       </c>
       <c r="H2">
-        <v>0.7237827715355806</v>
+        <v>0.7682777146544348</v>
       </c>
       <c r="I2">
-        <v>284</v>
+        <v>495</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="K2">
-        <v>489</v>
+        <v>149</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6617050067658998</v>
+        <v>0.7925531914893617</v>
       </c>
       <c r="C2">
-        <v>0.9157303370786517</v>
+        <v>0.2790262172284644</v>
       </c>
       <c r="D2">
-        <v>0.7682639434406913</v>
+        <v>0.4127423822714681</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8632218844984803</v>
+        <v>0.5625</v>
       </c>
       <c r="C3">
-        <v>0.5318352059925093</v>
+        <v>0.9269662921348315</v>
       </c>
       <c r="D3">
-        <v>0.6581691772885284</v>
+        <v>0.7001414427157001</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="C4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="E4">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.76246344563219</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C5">
-        <v>0.7237827715355805</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D5">
-        <v>0.7132165603646099</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.76246344563219</v>
+        <v>0.6775265957446808</v>
       </c>
       <c r="C6">
-        <v>0.7237827715355806</v>
+        <v>0.602996254681648</v>
       </c>
       <c r="D6">
-        <v>0.7132165603646098</v>
+        <v>0.5564419124935841</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>489</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
